--- a/biology/Médecine/Évolution_du_cadre_juridique_du_risque_médical_en_France/Évolution_du_cadre_juridique_du_risque_médical_en_France.xlsx
+++ b/biology/Médecine/Évolution_du_cadre_juridique_du_risque_médical_en_France/Évolution_du_cadre_juridique_du_risque_médical_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89volution_du_cadre_juridique_du_risque_m%C3%A9dical_en_France</t>
+          <t>Évolution_du_cadre_juridique_du_risque_médical_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La demande de réparation du préjudice d'un acte médical n'a pas toujours eu le champ sémantique que nous lui connaissons aujourd'hui. L'évolution peut se résumer selon la chronologie suivante:
 Durant la période précédant le XVIIe siècle, le corps médical ne pouvait pas être mis en cause pour deux raisons. La première était que le médecin était souvent un homme d'Église, et qu'à ce titre  ce n'était pas le médecin qui guérissait, mais Dieu. D'autre part, le médecin étant commis par son patient, en cas d'erreur médicale, le patient, « ne pouvant se plaindre de son incurie », devait en assumer seul les conséquences.
@@ -489,7 +501,7 @@
 Dans les années 1950 apparaît la notion d'information du patient. Elle découle de la  notion de contrat qui, pour que les deux parties s'entendent sur une décision, exige qu'ils soient communément informés.
 La notion de consentement éclairé, par laquelle le praticien est tenu de présenter clairement au patient tous les risques d'une conduite thérapeutique, apparaît dans le cadre de programmes de recherche américains vers la fin de 1987. Elle n'apparaîtra en France qu'en 2002 à la suite d'une décision faisant jurisprudence. Cette notion de consentement éclairé était dans le code déontologique avant qu'il n'apparaisse dans la loi.
 Le risque médical peut aussi toucher le personnel médical, qui est notamment exposé en cas de pandémie ou épidémie. 
-Il existe en France un Observatoire des risques médicaux – ORM – [1]. D'abord destiné à collecter et analyser les données sur les accidents médicaux, affections iatrogènes et infections nosocomiales, ainsi que les données sur les indemnisations versées en réparation des dommages.  En 2007, il a été aussi chargé d'analyser les impacts (dont financiers) des accidents médicaux, affections iatrogènes et infections nosocomiales, et donc d'analyser l'évolution des primes[2].
+Il existe en France un Observatoire des risques médicaux – ORM – . D'abord destiné à collecter et analyser les données sur les accidents médicaux, affections iatrogènes et infections nosocomiales, ainsi que les données sur les indemnisations versées en réparation des dommages.  En 2007, il a été aussi chargé d'analyser les impacts (dont financiers) des accidents médicaux, affections iatrogènes et infections nosocomiales, et donc d'analyser l'évolution des primes.
 </t>
         </is>
       </c>
